--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07E350C-DC07-7F46-94AF-5D992EC74C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D3142-A950-E544-B8D8-68E63A6DE561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44220" yWindow="2040" windowWidth="43420" windowHeight="17440" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
+    <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>Application</t>
   </si>
@@ -116,15 +116,6 @@
     <t>BPL_YEAST_COB</t>
   </si>
   <si>
-    <t>PY2_BPL_YEAST_COB2_Batch_compile</t>
-  </si>
-  <si>
-    <t>BPL_YEAST_COB2</t>
-  </si>
-  <si>
-    <t>BPL_YEAST_COB2_Batch</t>
-  </si>
-  <si>
     <t>BPL_YEAST_AIR_Fedbatch</t>
   </si>
   <si>
@@ -204,6 +195,12 @@
   </si>
   <si>
     <t>BatchWithNoise</t>
+  </si>
+  <si>
+    <t>BPL_YEAST_COB/Batch</t>
+  </si>
+  <si>
+    <t>PY2_BPL_YEAST_COB_Batch_compile</t>
   </si>
 </sst>
 </file>
@@ -258,15 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +600,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +716,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -730,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -753,7 +748,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -762,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -785,16 +780,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -803,10 +798,10 @@
         <v>45605</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -817,7 +812,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -849,30 +844,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3">
         <v>45857</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
@@ -890,19 +885,19 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3">
         <v>45860</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>10</v>
@@ -913,16 +908,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -931,15 +926,15 @@
         <v>45622</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <v>45610</v>
       </c>
     </row>
@@ -956,7 +951,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3">
@@ -968,7 +963,7 @@
       <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="3">
@@ -988,7 +983,7 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3">
@@ -1000,7 +995,7 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3">
@@ -1009,16 +1004,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1027,10 +1022,10 @@
         <v>45603</v>
       </c>
       <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
         <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
       </c>
       <c r="I18" t="s">
         <v>10</v>
@@ -1041,16 +1036,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1059,10 +1054,10 @@
         <v>45603</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
@@ -1073,31 +1068,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3">
         <v>45860</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J21" s="3">
         <v>45860</v>

--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D3142-A950-E544-B8D8-68E63A6DE561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD94062-C614-FA42-94EF-911AE6D32349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
@@ -223,18 +223,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,8 +255,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +594,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,7 +849,7 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3">
@@ -867,7 +861,7 @@
       <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
@@ -887,7 +881,7 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3">
@@ -899,11 +893,11 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="J12" s="5">
-        <v>45821</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -951,7 +945,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3">
@@ -963,7 +957,7 @@
       <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="3">
@@ -983,7 +977,7 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3">
@@ -995,7 +989,7 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="3">

--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD94062-C614-FA42-94EF-911AE6D32349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A0C9CB-8F76-4B40-A984-CFE7206C5601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Application</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Script-file Windows</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>BPL</t>
   </si>
   <si>
@@ -201,6 +198,12 @@
   </si>
   <si>
     <t>PY2_BPL_YEAST_COB_Batch_compile</t>
+  </si>
+  <si>
+    <t>Date Windows</t>
+  </si>
+  <si>
+    <t>Date Linux</t>
   </si>
 </sst>
 </file>
@@ -249,14 +252,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E30EC-0B65-D843-A95F-ACFD0D192E0C}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +604,7 @@
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -623,22 +624,22 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -657,11 +658,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>45602</v>
+        <v>45864</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -670,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
         <v>45820</v>
@@ -678,7 +679,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -687,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>45602</v>
+        <v>45864</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -702,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
         <v>45820</v>
@@ -710,7 +711,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -719,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>45602</v>
+        <v>45864</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -734,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3">
         <v>45820</v>
@@ -742,7 +743,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -751,13 +752,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <v>45602</v>
+        <v>45864</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -766,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3">
         <v>45820</v>
@@ -774,31 +775,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <v>45605</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3">
         <v>45824</v>
@@ -806,7 +807,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -817,11 +818,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3">
-        <v>45602</v>
+        <v>45864</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -830,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="3">
         <v>45820</v>
@@ -838,31 +839,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <v>45857</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3">
         <v>45840</v>
@@ -870,63 +871,63 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3">
         <v>45860</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="5">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
         <v>45861</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="3">
         <v>45622</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="3">
         <v>45610</v>
@@ -934,31 +935,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
         <v>45860</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>45861</v>
@@ -966,31 +967,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3">
         <v>45860</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3">
         <v>45861</v>
@@ -998,95 +999,95 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3">
-        <v>45603</v>
+        <v>45863</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <v>45821</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3">
-        <v>45603</v>
+        <v>45863</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="3">
-        <v>45821</v>
+        <v>45863</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3">
         <v>45860</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" s="3">
         <v>45860</v>

--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A0C9CB-8F76-4B40-A984-CFE7206C5601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7AF44-E521-A545-874E-CA4E2FE6D46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,11 +670,11 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="3">
-        <v>45820</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -702,11 +702,11 @@
       <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>45820</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,11 +734,11 @@
       <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>9</v>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>45820</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -766,11 +766,11 @@
       <c r="H6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>45820</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -830,11 +830,11 @@
       <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" t="s">
-        <v>9</v>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="3">
-        <v>45820</v>
+        <v>45866</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">

--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB7AF44-E521-A545-874E-CA4E2FE6D46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B134E-7738-634F-956F-4BCDF16E5103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E30EC-0B65-D843-A95F-ACFD0D192E0C}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,11 +786,11 @@
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="3">
-        <v>45605</v>
+        <v>45867</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -798,11 +798,11 @@
       <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="3">
-        <v>45824</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/Compilation.xlsx
+++ b/Compilation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janpeter/Code/Modelica/GitHub/Colab/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B134E-7738-634F-956F-4BCDF16E5103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA1421-6C74-694A-90F0-9837863FDCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37520" yWindow="1120" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
+    <workbookView xWindow="-48100" yWindow="1880" windowWidth="35880" windowHeight="16800" xr2:uid="{700B6DE0-1315-2148-BCDB-8D3C6B768FAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
   <si>
     <t>Application</t>
   </si>
@@ -65,9 +65,6 @@
     <t>BPL</t>
   </si>
   <si>
-    <t>2.3.0</t>
-  </si>
-  <si>
     <t>2.3.1</t>
   </si>
   <si>
@@ -204,6 +201,18 @@
   </si>
   <si>
     <t>Date Linux</t>
+  </si>
+  <si>
+    <t>2.3.2  prel</t>
+  </si>
+  <si>
+    <t>2.3.2 prel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3.2 - prel </t>
+  </si>
+  <si>
+    <t>2.3.2 - prel</t>
   </si>
 </sst>
 </file>
@@ -595,7 +604,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,11 +612,12 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -627,19 +637,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -659,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>45864</v>
@@ -671,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3">
         <v>45866</v>
@@ -679,7 +689,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -688,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>45864</v>
@@ -703,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
         <v>45866</v>
@@ -711,7 +721,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -720,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>45864</v>
@@ -735,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3">
         <v>45866</v>
@@ -743,7 +753,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -752,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>45864</v>
@@ -767,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3">
         <v>45866</v>
@@ -775,31 +785,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <v>45867</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3">
         <v>45867</v>
@@ -807,7 +817,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -819,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>45864</v>
@@ -831,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="3">
         <v>45866</v>
@@ -839,63 +849,63 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45881</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45857</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3">
-        <v>45840</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3">
         <v>45860</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="3">
         <v>45861</v>
@@ -903,63 +913,63 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45880</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45622</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
+      <c r="I13" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="J13" s="3">
-        <v>45610</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="3">
         <v>45860</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3">
         <v>45861</v>
@@ -967,31 +977,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <v>45860</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3">
         <v>45861</v>
@@ -999,31 +1009,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
         <v>45863</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" s="3">
         <v>45863</v>
@@ -1031,31 +1041,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>45863</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3">
         <v>45863</v>
@@ -1063,31 +1073,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3">
         <v>45860</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="3">
         <v>45860</v>
